--- a/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.1.xlsx
+++ b/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,6 +57,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
   </definedNames>
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="103">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -156,6 +159,9 @@
     <t xml:space="preserve">Output</t>
   </si>
   <si>
+    <t xml:space="preserve">Filter_Denominator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ignore Stacking</t>
   </si>
   <si>
@@ -198,15 +204,18 @@
     <t xml:space="preserve">score</t>
   </si>
   <si>
+    <t xml:space="preserve">net_len_ign_stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_fk</t>
+  </si>
+  <si>
     <t xml:space="preserve">product_fk</t>
   </si>
   <si>
     <t xml:space="preserve">sum(SKUs, Others, and Empties linear inches)</t>
   </si>
   <si>
-    <t xml:space="preserve">category_fk</t>
-  </si>
-  <si>
     <t xml:space="preserve">sum(All linear inches in  pk’s category)</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">SOS Facings Category out of Whole Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings</t>
   </si>
   <si>
     <t xml:space="preserve">sum(Category facings including stacking)</t>
@@ -784,12 +796,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="133.46963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="137.004048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="49.8097165991903"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,36 +2019,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.2712550607288"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="2" width="127.793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="71.9838056680162"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="2" width="131.327935222672"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2059,10 +2071,10 @@
         <v>30</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>32</v>
@@ -2094,8 +2106,11 @@
       <c r="S1" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
@@ -2105,12 +2120,13 @@
       <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="n">
+      <c r="D2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2118,97 +2134,103 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="L2" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="J2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="M2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="13" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="n">
+      <c r="D3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="F3" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
       </c>
       <c r="G3" s="14" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="L3" s="13" t="s">
+      <c r="K3" s="6"/>
+      <c r="M3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="n">
+      <c r="D4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2216,31 +2238,35 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="6"/>
+      <c r="M4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2260,24 +2286,24 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
@@ -2296,31 +2322,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,25 +2360,25 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2374,21 +2400,21 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
@@ -2407,28 +2433,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,22 +2471,22 @@
         <v>17</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2490,9 +2516,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="126.506072874494"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="130.04048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.89068825910931"/>
@@ -2512,37 +2538,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,23 +2598,23 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
@@ -2605,34 +2631,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,26 +2672,26 @@
         <v>23</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -2682,26 +2708,26 @@
         <v>23</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -2735,9 +2761,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="60.8421052631579"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2746,13 +2772,13 @@
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,13 +2786,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="18" t="n">
         <v>18</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,13 +2800,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="18" t="n">
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,13 +2814,13 @@
         <v>91</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="18" t="n">
         <v>16</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,13 +2828,13 @@
         <v>90</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="18" t="n">
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,13 +2842,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="18" t="n">
         <v>13</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,13 +2856,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="18" t="n">
         <v>12</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,13 +2870,13 @@
         <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="18" t="n">
         <v>11</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,13 +2884,13 @@
         <v>85</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="18" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,13 +2898,13 @@
         <v>84</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C10" s="18" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,13 +2912,13 @@
         <v>46</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" s="18" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" s="18" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,13 +2940,13 @@
         <v>44</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" s="18" t="n">
         <v>3</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,13 +2954,13 @@
         <v>45</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="18" t="n">
         <v>6</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,13 +2968,13 @@
         <v>47</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" s="18" t="n">
         <v>7</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,13 +2982,13 @@
         <v>44</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" s="18" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,13 +2996,13 @@
         <v>89</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C17" s="18" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,13 +3010,13 @@
         <v>46</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" s="18" t="n">
         <v>19</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,13 +3024,13 @@
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" s="18" t="n">
         <v>20</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3051,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3036,7 +3062,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B1" s="20" t="n">
         <v>1</v>
@@ -3074,10 +3100,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -3092,13 +3118,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -3113,16 +3139,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D4" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -3135,19 +3161,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -3160,22 +3186,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -3187,25 +3213,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -3216,28 +3242,28 @@
         <v>8</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -3247,31 +3273,31 @@
         <v>9</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D9" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -3280,34 +3306,34 @@
         <v>10</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="F10" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.1.xlsx
+++ b/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.1.xlsx
@@ -60,6 +60,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
   </definedNames>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="103">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -696,11 +697,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,17 +792,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" activeCellId="1" sqref="B2 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="137.004048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="138.182186234818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="50.2388663967611"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,30 +2023,30 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+      <selection pane="topLeft" activeCell="R3" activeCellId="1" sqref="B2 R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="45.8461538461538"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="71.9838056680162"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="2" width="131.327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="2" width="132.506072874494"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,23 +2288,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="B2 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
@@ -2400,21 +2401,21 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="B2 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
@@ -2508,7 +2509,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="B2 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2516,9 +2517,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="130.04048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="131.113360323887"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.89068825910931"/>
@@ -2599,22 +2600,22 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="B2 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
@@ -2755,15 +2756,15 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B2 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="61.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3049,10 +3050,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3095,244 +3096,261 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J11" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>100</v>
       </c>
     </row>
